--- a/Excel/Project Work/XLOOKUP Excel Tutorial File.xlsx
+++ b/Excel/Project Work/XLOOKUP Excel Tutorial File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practice Project\data science\data-analysis\Excel\Project Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D47EE7-EEA1-4039-B921-98D412EEAD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F727853-9572-4669-B171-72917D25B938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF05A7-3704-402E-8684-C856D6F82881}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,6 +1643,10 @@
       <c r="A3" t="s">
         <v>86</v>
       </c>
+      <c r="B3" t="str">
+        <f>_xlfn.XLOOKUP("*"&amp;A3,H2:H10,O2:O10,"N/A",2)</f>
+        <v>N/A</v>
+      </c>
       <c r="E3">
         <v>1002</v>
       </c>
@@ -1681,6 +1685,10 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B6" si="0">_xlfn.XLOOKUP("*"&amp;A4,H3:H11,O3:O11,"N/A",2)</f>
+        <v>Pam.Beasley@DunderMifflin.com</v>
+      </c>
       <c r="E4">
         <v>1003</v>
       </c>
@@ -1719,6 +1727,10 @@
       <c r="A5" t="s">
         <v>46</v>
       </c>
+      <c r="B5" t="str">
+        <f>_xlfn.XLOOKUP(A5&amp;"*",H4:H12,O4:O12,"N/A",2)</f>
+        <v>Meredith.Palmer@Yahoo.com</v>
+      </c>
       <c r="E5">
         <v>1004</v>
       </c>
@@ -1757,6 +1769,10 @@
       <c r="A6" t="s">
         <v>87</v>
       </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>N/A</v>
+      </c>
       <c r="E6">
         <v>1005</v>
       </c>
@@ -1933,13 +1949,13 @@
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" t="str">
-        <f t="shared" ref="H22:H23" si="0">CONCATENATE(F12," ",G12)</f>
+        <f t="shared" ref="H22:H23" si="1">CONCATENATE(F12," ",G12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1953,7 +1969,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,6 +2062,10 @@
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B3" t="e">
+        <f>_xlfn.XLOOKUP(A3,N2:N10,I2:I10,,,1)</f>
+        <v>#N/A</v>
+      </c>
       <c r="F3">
         <v>1002</v>
       </c>
@@ -2083,6 +2103,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.XLOOKUP(A4,N3:N11,I3:I11,,,-1)</f>
+        <v>Michael Scott</v>
       </c>
       <c r="F4">
         <v>1003</v>
@@ -2350,7 +2374,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,6 +2427,10 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
+      <c r="B2">
+        <f>_xlfn.XLOOKUP(I1,H1:S1,H2:S2)</f>
+        <v>310</v>
+      </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
@@ -2447,6 +2475,10 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
+      <c r="B3">
+        <f>_xlfn.XLOOKUP(I2,H2:S2,H3:S3)</f>
+        <v>40</v>
+      </c>
       <c r="G3" t="s">
         <v>71</v>
       </c>
@@ -2490,6 +2522,10 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.XLOOKUP(I3,H3:S3,H4:S4)</f>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>84</v>
@@ -2540,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,6 +2630,10 @@
       <c r="A2" t="s">
         <v>70</v>
       </c>
+      <c r="B2">
+        <f>_xlfn.XLOOKUP(I1,H1:S1,H2:S2)</f>
+        <v>310</v>
+      </c>
       <c r="G2" t="s">
         <v>70</v>
       </c>
@@ -2638,6 +2678,10 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B4" si="0">_xlfn.XLOOKUP(I2,H2:S2,H3:S3)</f>
+        <v>40</v>
+      </c>
       <c r="G3" t="s">
         <v>71</v>
       </c>
@@ -2682,6 +2726,10 @@
       <c r="A4" t="s">
         <v>84</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
       <c r="G4" t="s">
         <v>84</v>
       </c>
@@ -2730,6 +2778,10 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
+      </c>
+      <c r="B7">
+        <f>SUM(_xlfn.XLOOKUP(I1,H1:S1,H2:S2):_xlfn.XLOOKUP(J1,H1:S1,H2:S2))</f>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
